--- a/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.alavi\Documents\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361D825-A290-442A-9E7C-27860D5A1BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528B6CE-F22E-41FA-A1BB-9264BE640472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{504313CB-DFC7-4698-9C3E-5D6E41717801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{504313CB-DFC7-4698-9C3E-5D6E41717801}"/>
   </bookViews>
   <sheets>
     <sheet name="Job_Card" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Name نام کارت فعاليت</t>
   </si>
@@ -140,44 +140,65 @@
     <t>Year</t>
   </si>
   <si>
-    <t>PM.D.CA.0001</t>
-  </si>
-  <si>
-    <t>PM.M.CA.0001</t>
-  </si>
-  <si>
-    <t>PM.M.CA.0003</t>
-  </si>
-  <si>
-    <t>PM.Y.CA.0001</t>
-  </si>
-  <si>
-    <t>PM.D.CA.0002</t>
-  </si>
-  <si>
-    <t>PM.D.CA.0003</t>
-  </si>
-  <si>
-    <t>PM.W.CA.0001</t>
-  </si>
-  <si>
-    <t>PM.M.CA.0002</t>
-  </si>
-  <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>PM.1D.CA.0001</t>
+  </si>
+  <si>
+    <t>PM.2D.CA.0002</t>
+  </si>
+  <si>
+    <t>PM.3D.CA.0003</t>
+  </si>
+  <si>
+    <t>PM.1W.CA.0001</t>
+  </si>
+  <si>
+    <t>PM.1M.CA.0001</t>
+  </si>
+  <si>
+    <t>PM.3M.CA.0002</t>
+  </si>
+  <si>
+    <t>PM.6M.CA.0003</t>
+  </si>
+  <si>
+    <t>PM.1Y.CA.0001</t>
+  </si>
+  <si>
+    <t>Kilometer</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>سرویس دوره ای - PM</t>
+  </si>
+  <si>
+    <t>مکانیک</t>
+  </si>
+  <si>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -233,25 +254,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1595,7 @@
     <col min="12" max="12" width="20.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" style="5" customWidth="1"/>
     <col min="14" max="14" width="26.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="5" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="5" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" style="5" customWidth="1"/>
@@ -1648,8 +1678,8 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1659,31 +1689,43 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25000</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -1693,13 +1735,17 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20000</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1716,8 +1762,8 @@
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -1733,7 +1779,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1750,8 +1796,8 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -1767,7 +1813,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1784,8 +1830,8 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1801,7 +1847,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1818,8 +1864,8 @@
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1835,7 +1881,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1852,8 +1898,8 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1869,7 +1915,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1886,8 +1932,8 @@
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -1903,7 +1949,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2109,7 +2155,7 @@
       <c r="V17" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>

--- a/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.alavi\Documents\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidaralavi\Documents\GitHub\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528B6CE-F22E-41FA-A1BB-9264BE640472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18504D9-659F-4097-82C7-1B7509CBD412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{504313CB-DFC7-4698-9C3E-5D6E41717801}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{504313CB-DFC7-4698-9C3E-5D6E41717801}"/>
   </bookViews>
   <sheets>
     <sheet name="Job_Card" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,51 +30,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
-    <t>Name نام کارت فعاليت</t>
-  </si>
-  <si>
     <t>Code کد کارت فعالت</t>
   </si>
   <si>
-    <t>CalendarUnit واحد تقويمي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CalendarPeriod دوره تقويمي </t>
-  </si>
-  <si>
-    <t>CalendarPeriodPlus شناوري مثبت تقويمي</t>
-  </si>
-  <si>
-    <t>calendarPeriodMinus شناوري منفي تقويمي</t>
-  </si>
-  <si>
-    <t>MeterUnit واحد کارکردي</t>
-  </si>
-  <si>
-    <t>MeterPeriod دوره کارکردي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeterPeriodPlus شناوري کارکردي مثبت </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeterPeriodMinus شناوري کارکردي منفي </t>
-  </si>
-  <si>
-    <t>SafetyInstruction نکته ايمني</t>
-  </si>
-  <si>
-    <t>PlanningStatus وضعيت کارت فعاليت</t>
-  </si>
-  <si>
-    <t>CalendarCoverageLimit حد همپوشاني تقويمي</t>
-  </si>
-  <si>
-    <t>MeterCoverageLimit حد همپوشاني کارکردي</t>
-  </si>
-  <si>
-    <t>JCType نوع کارت فعاليت</t>
-  </si>
-  <si>
     <t>WorkTrade نوع کار</t>
   </si>
   <si>
@@ -92,18 +42,12 @@
     <t>AssetCategory گروه دستگاه</t>
   </si>
   <si>
-    <t>Department مجري</t>
-  </si>
-  <si>
     <t>DurationUnit واحد انجام</t>
   </si>
   <si>
     <t>Duration مدت انجام</t>
   </si>
   <si>
-    <t>Problem کد ايراد و مشکل</t>
-  </si>
-  <si>
     <t>پی ام های روزانه تجهیزات (CA)</t>
   </si>
   <si>
@@ -180,6 +124,54 @@
   </si>
   <si>
     <t>Hour</t>
+  </si>
+  <si>
+    <t>Name نام کارت فعالیت</t>
+  </si>
+  <si>
+    <t>CalendarUnit واحد تقویمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalendarPeriod دوره تقویمی </t>
+  </si>
+  <si>
+    <t>CalendarPeriodPlus شناوری مثبت تقویمی</t>
+  </si>
+  <si>
+    <t>calendarPeriodMinus شناوری منفی تقویمی</t>
+  </si>
+  <si>
+    <t>MeterUnit واحد کارکردی</t>
+  </si>
+  <si>
+    <t>MeterPeriod دوره کارکردی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeterPeriodPlus شناوری کارکردی مثبت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeterPeriodMinus شناوری کارکردی منفی </t>
+  </si>
+  <si>
+    <t>SafetyInstruction نکته ایمنی</t>
+  </si>
+  <si>
+    <t>PlanningStatus وضعیت کارت فعالیت</t>
+  </si>
+  <si>
+    <t>CalendarCoverageLimit حد همپوشانی تقویمی</t>
+  </si>
+  <si>
+    <t>MeterCoverageLimit حد همپوشانی کارکردی</t>
+  </si>
+  <si>
+    <t>JCType نوع کارت فعالیت</t>
+  </si>
+  <si>
+    <t>Department مجری</t>
+  </si>
+  <si>
+    <t>Problem کد ایراد و مشکل</t>
   </si>
 </sst>
 </file>
@@ -254,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -282,6 +274,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,28 +1241,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCAD4E00-E14D-4F85-9886-9F1E2DEEE580}" name="Table1" displayName="Table1" ref="A1:V17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:V17" xr:uid="{BCAD4E00-E14D-4F85-9886-9F1E2DEEE580}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{A7696A59-65AB-4185-BF93-AD6A450EA202}" name="Name نام کارت فعاليت" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{A7696A59-65AB-4185-BF93-AD6A450EA202}" name="Name نام کارت فعالیت" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{A34FDC14-6652-414D-B346-6D48B79CFA30}" name="Code کد کارت فعالت" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1CC5DFD0-B474-469F-96AF-CDA2F6CD9EBD}" name="CalendarUnit واحد تقويمي" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{A0F33A11-C093-4B3B-8F63-058728150638}" name="CalendarPeriod دوره تقويمي " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{2A60DEDB-416D-4F35-9B37-FE3D94489475}" name="CalendarPeriodPlus شناوري مثبت تقويمي" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{9A385831-AABC-4837-B899-FA4EC4D5863E}" name="calendarPeriodMinus شناوري منفي تقويمي" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{05E0F848-3203-4174-8574-F85833D3B33E}" name="MeterUnit واحد کارکردي" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{418180A4-186F-4513-A299-4B10D89F559A}" name="MeterPeriod دوره کارکردي" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{7BD83A93-50BE-4BEB-A00E-A186AE84754A}" name="MeterPeriodPlus شناوري کارکردي مثبت " dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{924D6486-4D5C-4D70-9236-4369541458E0}" name="MeterPeriodMinus شناوري کارکردي منفي " dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{9018B028-470C-4849-B0F8-56CDC63BC29A}" name="SafetyInstruction نکته ايمني" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{BE3EB490-894D-44F0-A51C-471CA226B188}" name="PlanningStatus وضعيت کارت فعاليت" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{AF5A75FE-66E6-4DBE-A5D3-86295EEB0A03}" name="CalendarCoverageLimit حد همپوشاني تقويمي" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{30C7E401-8513-47AE-9E80-FF429E30F9E5}" name="MeterCoverageLimit حد همپوشاني کارکردي" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{079D4B74-BEEB-45A4-908B-ACC88E5CAC39}" name="JCType نوع کارت فعاليت" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1CC5DFD0-B474-469F-96AF-CDA2F6CD9EBD}" name="CalendarUnit واحد تقویمی" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A0F33A11-C093-4B3B-8F63-058728150638}" name="CalendarPeriod دوره تقویمی " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{2A60DEDB-416D-4F35-9B37-FE3D94489475}" name="CalendarPeriodPlus شناوری مثبت تقویمی" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{9A385831-AABC-4837-B899-FA4EC4D5863E}" name="calendarPeriodMinus شناوری منفی تقویمی" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{05E0F848-3203-4174-8574-F85833D3B33E}" name="MeterUnit واحد کارکردی" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{418180A4-186F-4513-A299-4B10D89F559A}" name="MeterPeriod دوره کارکردی" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{7BD83A93-50BE-4BEB-A00E-A186AE84754A}" name="MeterPeriodPlus شناوری کارکردی مثبت " dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{924D6486-4D5C-4D70-9236-4369541458E0}" name="MeterPeriodMinus شناوری کارکردی منفی " dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{9018B028-470C-4849-B0F8-56CDC63BC29A}" name="SafetyInstruction نکته ایمنی" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{BE3EB490-894D-44F0-A51C-471CA226B188}" name="PlanningStatus وضعیت کارت فعالیت" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{AF5A75FE-66E6-4DBE-A5D3-86295EEB0A03}" name="CalendarCoverageLimit حد همپوشانی تقویمی" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{30C7E401-8513-47AE-9E80-FF429E30F9E5}" name="MeterCoverageLimit حد همپوشانی کارکردی" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{079D4B74-BEEB-45A4-908B-ACC88E5CAC39}" name="JCType نوع کارت فعالیت" dataDxfId="7"/>
     <tableColumn id="16" xr3:uid="{2E35A3D3-1C7A-4811-AEF4-D26C6C2C9179}" name="WorkTrade نوع کار" dataDxfId="6"/>
     <tableColumn id="17" xr3:uid="{087DCF85-584C-4662-AA76-313EAAB3FD1A}" name="AssetClass کلاس دستگاه" dataDxfId="5"/>
     <tableColumn id="18" xr3:uid="{228B6668-DF5F-4BB9-807F-CC6830CC4829}" name="AssetCategory گروه دستگاه" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{E71325CC-D78E-4EE3-983B-B11992907403}" name="Department مجري" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{E71325CC-D78E-4EE3-983B-B11992907403}" name="Department مجری" dataDxfId="3"/>
     <tableColumn id="20" xr3:uid="{73681AA0-AD64-4595-92AD-3B6DFEACEA38}" name="DurationUnit واحد انجام" dataDxfId="2"/>
     <tableColumn id="21" xr3:uid="{C29931B8-A4AF-42B8-8291-903906CA1190}" name="Duration مدت انجام" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{861EE1E5-B416-4282-A529-AC4C7E1F3D3F}" name="Problem کد ايراد و مشکل" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{861EE1E5-B416-4282-A529-AC4C7E1F3D3F}" name="Problem کد ایراد و مشکل" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1576,113 +1571,113 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="5" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="16" style="5" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="14.42578125" style="5"/>
+    <col min="20" max="20" width="17.44140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="S1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="V1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1690,7 +1685,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>25000</v>
@@ -1699,36 +1694,36 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6"/>
       <c r="T2" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="U2" s="6">
         <v>1</v>
       </c>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1736,7 +1731,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
         <v>20000</v>
@@ -1745,7 +1740,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1758,15 +1753,15 @@
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1779,7 +1774,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1792,15 +1787,15 @@
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1813,7 +1808,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1826,15 +1821,15 @@
       <c r="U5" s="6"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1847,7 +1842,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1860,15 +1855,15 @@
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1881,7 +1876,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1894,15 +1889,15 @@
       <c r="U7" s="6"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1915,7 +1910,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1928,15 +1923,15 @@
       <c r="U8" s="6"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1949,7 +1944,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1962,7 +1957,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1986,7 +1981,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2010,7 +2005,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2034,7 +2029,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2058,7 +2053,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2082,7 +2077,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2106,7 +2101,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2130,7 +2125,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/jobcard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidaralavi\Documents\GitHub\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18504D9-659F-4097-82C7-1B7509CBD412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DE6DB-BBAE-43FB-B318-9405A844CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{504313CB-DFC7-4698-9C3E-5D6E41717801}"/>
   </bookViews>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
